--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -1,37 +1,290 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcastillo.ext\Documents\FARMATODO COGIDO\ALGOLIA\output\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6470"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Precio</t>
+  </si>
+  <si>
+    <t>Vegan</t>
+  </si>
+  <si>
+    <t>Gluten Free</t>
+  </si>
+  <si>
+    <t>Sugar Free</t>
+  </si>
+  <si>
+    <t>Talla</t>
+  </si>
+  <si>
+    <t>Etapa</t>
+  </si>
+  <si>
+    <t>Tipo de piel</t>
+  </si>
+  <si>
+    <t>Tipo de cabello</t>
+  </si>
+  <si>
+    <t>Tono / Color</t>
+  </si>
+  <si>
+    <t>Acabado</t>
+  </si>
+  <si>
+    <t>Cobertura</t>
+  </si>
+  <si>
+    <t>Formato cosmético</t>
+  </si>
+  <si>
+    <t>Función / Beneficio</t>
+  </si>
+  <si>
+    <t>Duración / Resistencia al agua</t>
+  </si>
+  <si>
+    <t>Con fragancia (Sí / No)</t>
+  </si>
+  <si>
+    <t>Con protección solar (Sí / No)</t>
+  </si>
+  <si>
+    <t>FPS</t>
+  </si>
+  <si>
+    <t>Ingredientes activos</t>
+  </si>
+  <si>
+    <t>Edad recomendada / Etapa bebé</t>
+  </si>
+  <si>
+    <t>Formato bebé</t>
+  </si>
+  <si>
+    <t>Hipoalergénico / Dermatológicamente probado (Sí / No)</t>
+  </si>
+  <si>
+    <t>Con ingredientes naturales (Sí / No)</t>
+  </si>
+  <si>
+    <t>Sin conservantes (Sí / No)</t>
+  </si>
+  <si>
+    <t>Material / Textura bebé</t>
+  </si>
+  <si>
+    <t>Antiderrames / Anticólicos / Antibacteriano (Sí / No)</t>
+  </si>
+  <si>
+    <t>Con BPA (Sí / No)</t>
+  </si>
+  <si>
+    <t>Compatible con esterilizadores (Sí / No)</t>
+  </si>
+  <si>
+    <t>Facilidad de digestión (Sí / No / Alta / Media / Baja)</t>
+  </si>
+  <si>
+    <t>Con alcohol (Sí / No)</t>
+  </si>
+  <si>
+    <t>Protección 24h / Resistente al agua (Sí / No)</t>
+  </si>
+  <si>
+    <t>Con color (Sí / No)</t>
+  </si>
+  <si>
+    <t>Zonas de uso</t>
+  </si>
+  <si>
+    <t>Libre de alcohol (Sí / No)</t>
+  </si>
+  <si>
+    <t>Libre de aceites (Sí / No)</t>
+  </si>
+  <si>
+    <t>Libre de parabenos (Sí / No)</t>
+  </si>
+  <si>
+    <t>Libre de comedogénicos (Sí / No)</t>
+  </si>
+  <si>
+    <t>Con enjuague (Sí / No)</t>
+  </si>
+  <si>
+    <t>Orgánico (Sí / No)</t>
+  </si>
+  <si>
+    <t>Natural (Sí / No)</t>
+  </si>
+  <si>
+    <t>Sin aditivos (Sí / No)</t>
+  </si>
+  <si>
+    <t>Vegetariano (Sí / No)</t>
+  </si>
+  <si>
+    <t>Keto (Sí / No)</t>
+  </si>
+  <si>
+    <t>Bajo en sodio (Sí / No)</t>
+  </si>
+  <si>
+    <t>Fuente de proteína (Sí / No)</t>
+  </si>
+  <si>
+    <t>Fuente de fibra (Sí / No)</t>
+  </si>
+  <si>
+    <t>Fuente de vitaminas (Sí / No)</t>
+  </si>
+  <si>
+    <t>Apto para diabéticos (Sí / No)</t>
+  </si>
+  <si>
+    <t>Apto para celíacos (Sí / No)</t>
+  </si>
+  <si>
+    <t>Con edulcorantes naturales (Sí / No)</t>
+  </si>
+  <si>
+    <t>Con edulcorantes artificiales (Sí / No)</t>
+  </si>
+  <si>
+    <t>Función hogar</t>
+  </si>
+  <si>
+    <t>Fragancia hogar</t>
+  </si>
+  <si>
+    <t>Biodegradable (Sí / No)</t>
+  </si>
+  <si>
+    <t>Reutilizable (Sí / No)</t>
+  </si>
+  <si>
+    <t>Compatible con lavavajillas / microondas / mascotas / superficies</t>
+  </si>
+  <si>
+    <t>Durabilidad / Resistencia</t>
+  </si>
+  <si>
+    <t>Uso (Interior / Exterior)</t>
+  </si>
+  <si>
+    <t>Sabor o aroma (para mascotas o alimentos)</t>
+  </si>
+  <si>
+    <t>Beneficio para mascotas</t>
+  </si>
+  <si>
+    <t>Tipo de suplemento</t>
+  </si>
+  <si>
+    <t>Objetivo / Beneficio deportivo</t>
+  </si>
+  <si>
+    <t>Sabor deportivo</t>
+  </si>
+  <si>
+    <t>Presentación suplemento</t>
+  </si>
+  <si>
+    <t>Con cafeína (Sí / No)</t>
+  </si>
+  <si>
+    <t>Sin lactosa (Sí / No)</t>
+  </si>
+  <si>
+    <t>Certificaciones</t>
+  </si>
+  <si>
+    <t>Forma de consumo</t>
+  </si>
+  <si>
+    <t>Incluye accesorios (Sí / No)</t>
+  </si>
+  <si>
+    <t>Tipo de deporte</t>
+  </si>
+  <si>
+    <t>Compatibilidad con apps, máquinas o rutinas (Sí / No)</t>
+  </si>
+  <si>
+    <t>1001539</t>
+  </si>
+  <si>
+    <t>Ureaderm Loción Frasco X225g. Med Urea Ácido Láctico</t>
+  </si>
+  <si>
+    <t>$150.400</t>
+  </si>
+  <si>
+    <t>1001578</t>
+  </si>
+  <si>
+    <t>Shampoo Novaderma Octodir Elimina Seborrea X120ml.</t>
+  </si>
+  <si>
+    <t>$85.750</t>
+  </si>
+  <si>
+    <t>1001634</t>
+  </si>
+  <si>
+    <t>Gel Benzac Ac 5 Porciento Limpiador Contra El Acné X60g</t>
+  </si>
+  <si>
+    <t>$58.475</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +299,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,105 +623,273 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BT5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Item</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Nombre</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Precio</t>
-        </is>
+    <row r="1" spans="1:72" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>1001038</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Tiras Freestyle Optium Glucómetro X 25 Und</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>$82.950</t>
-        </is>
+    <row r="2" spans="1:72" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1031657</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>1001539</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Ureaderm Loción Frasco X225g. Med Urea Ácido Láctico</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>$150.400</t>
-        </is>
+    <row r="3" spans="1:72" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>1001578</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Shampoo Novaderma Octodir Elimina Seborrea X120ml.</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>$85.750</t>
-        </is>
+    <row r="4" spans="1:72" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" t="s">
+        <v>77</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>1001634</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Gel Benzac Ac 5 Porciento Limpiador Contra El Acné X60g</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>$58.475</t>
-        </is>
+    <row r="5" spans="1:72" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BT4"/>
+  <dimension ref="A1:BT6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -813,12 +813,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t> </t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t> </t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -829,30 +829,42 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>capilar</t>
+        </is>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Calificación</t>
+        </is>
+      </c>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t> </t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t> </t>
         </is>
       </c>
       <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>Medicamentos</t>
+        </is>
+      </c>
       <c r="U2" t="inlineStr"/>
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t> </t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
@@ -865,15 +877,19 @@
           <t>Sí</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>producto producto</t>
+        </is>
+      </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t> </t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t> </t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
@@ -884,7 +900,7 @@
       <c r="AD2" t="inlineStr"/>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t> </t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
@@ -894,13 +910,13 @@
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t> </t>
         </is>
       </c>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t> </t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -915,22 +931,22 @@
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t> </t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t> </t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t> </t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t> </t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -940,12 +956,12 @@
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t> </t>
         </is>
       </c>
       <c r="AR2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t> </t>
         </is>
       </c>
       <c r="AS2" t="inlineStr">
@@ -960,22 +976,22 @@
       </c>
       <c r="AU2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t> </t>
         </is>
       </c>
       <c r="AV2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t> </t>
         </is>
       </c>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t> </t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t> </t>
         </is>
       </c>
       <c r="AY2" t="inlineStr">
@@ -985,30 +1001,42 @@
       </c>
       <c r="AZ2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t> </t>
         </is>
       </c>
       <c r="BA2" t="inlineStr"/>
       <c r="BB2" t="inlineStr"/>
       <c r="BC2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t> </t>
         </is>
       </c>
       <c r="BD2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t> </t>
         </is>
       </c>
       <c r="BE2" t="inlineStr"/>
-      <c r="BF2" t="inlineStr"/>
+      <c r="BF2" t="inlineStr">
+        <is>
+          <t>determinacion medición medición Calificación</t>
+        </is>
+      </c>
       <c r="BG2" t="inlineStr"/>
       <c r="BH2" t="inlineStr"/>
       <c r="BI2" t="inlineStr"/>
-      <c r="BJ2" t="inlineStr"/>
+      <c r="BJ2" t="inlineStr">
+        <is>
+          <t>medicamento</t>
+        </is>
+      </c>
       <c r="BK2" t="inlineStr"/>
       <c r="BL2" t="inlineStr"/>
-      <c r="BM2" t="inlineStr"/>
+      <c r="BM2" t="inlineStr">
+        <is>
+          <t>Rehabilitación determinacion medición Información medición Calificación</t>
+        </is>
+      </c>
       <c r="BN2" t="inlineStr">
         <is>
           <t>Sí</t>
@@ -1016,20 +1044,24 @@
       </c>
       <c r="BO2" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="BP2" t="inlineStr"/>
+          <t> </t>
+        </is>
+      </c>
+      <c r="BP2" t="inlineStr">
+        <is>
+          <t>determinacion Características medición Información medición Unidades Calificación</t>
+        </is>
+      </c>
       <c r="BQ2" t="inlineStr"/>
       <c r="BR2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t> </t>
         </is>
       </c>
       <c r="BS2" t="inlineStr"/>
       <c r="BT2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -1051,43 +1083,67 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t> </t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t> </t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t> </t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>hidratante pieles piel piel pieles piel pieles</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>hidratante piel piel piel</t>
+        </is>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>indicación Calificación Calificación calificación indicación Calificación</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Dermocosmética</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>porcentaje</t>
+        </is>
+      </c>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t> </t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t> </t>
         </is>
       </c>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>niño</t>
+        </is>
+      </c>
       <c r="W3" t="inlineStr">
         <is>
           <t>Sí</t>
@@ -1095,34 +1151,42 @@
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr"/>
+          <t> </t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>producto producto producto</t>
+        </is>
+      </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t> </t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t> </t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr"/>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>Loción Loción Loción Loción resequedad Loción Loción resequedad</t>
+        </is>
+      </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t> </t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
@@ -1132,93 +1196,93 @@
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t> </t>
         </is>
       </c>
       <c r="AH3" t="inlineStr"/>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t> </t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t> </t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t> </t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t> </t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t> </t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t> </t>
         </is>
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t> </t>
         </is>
       </c>
       <c r="AS3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="AU3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t> </t>
         </is>
       </c>
       <c r="AV3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t> </t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t> </t>
         </is>
       </c>
       <c r="AY3" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t> </t>
         </is>
       </c>
       <c r="AZ3" t="inlineStr">
@@ -1230,34 +1294,50 @@
       <c r="BB3" t="inlineStr"/>
       <c r="BC3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t> </t>
         </is>
       </c>
       <c r="BD3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="BE3" t="inlineStr"/>
-      <c r="BF3" t="inlineStr"/>
-      <c r="BG3" t="inlineStr"/>
+      <c r="BF3" t="inlineStr">
+        <is>
+          <t>Loción Loción Loción Loción uniformemente Loción Calificación Calificación calificación experiencia Loción uniformemente especialmente Calificación</t>
+        </is>
+      </c>
+      <c r="BG3" t="inlineStr">
+        <is>
+          <t>utilizar</t>
+        </is>
+      </c>
       <c r="BH3" t="inlineStr"/>
       <c r="BI3" t="inlineStr"/>
       <c r="BJ3" t="inlineStr"/>
       <c r="BK3" t="inlineStr"/>
       <c r="BL3" t="inlineStr"/>
-      <c r="BM3" t="inlineStr"/>
+      <c r="BM3" t="inlineStr">
+        <is>
+          <t>presentación indicación Calificación acción acción acción acción acción verificación Calificación Configuración calificación indicación Calificación</t>
+        </is>
+      </c>
       <c r="BN3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t> </t>
         </is>
       </c>
       <c r="BO3" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="BP3" t="inlineStr"/>
+          <t> </t>
+        </is>
+      </c>
+      <c r="BP3" t="inlineStr">
+        <is>
+          <t>presentación Características indicación Calificación verificación Calificación calificación valoraciones indicación consultas Calificación</t>
+        </is>
+      </c>
       <c r="BQ3" t="inlineStr"/>
       <c r="BR3" t="inlineStr">
         <is>
@@ -1267,59 +1347,71 @@
       <c r="BS3" t="inlineStr"/>
       <c r="BT3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t> </t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1001634</t>
+          <t>1001578</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gel Benzac Ac 5 Porciento Limpiador Contra El Acné X60g</t>
+          <t>Shampoo Novaderma Octodir Elimina Seborrea X120ml.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$58.475</t>
+          <t>$85.750</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>No</t>
+          <t> </t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>No</t>
+          <t> </t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>No</t>
+          <t> </t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>cabelludo piel</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Capilar cabelludo piel</t>
+        </is>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Calificación</t>
+        </is>
+      </c>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>No</t>
+          <t> </t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>No</t>
+          <t> </t>
         </is>
       </c>
       <c r="S4" t="inlineStr"/>
@@ -1333,34 +1425,42 @@
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr"/>
+          <t> </t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>producto producto producto producto</t>
+        </is>
+      </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>No</t>
+          <t> </t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>No</t>
+          <t> </t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr"/>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>Loción</t>
+        </is>
+      </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
@@ -1370,28 +1470,28 @@
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>No</t>
+          <t> </t>
         </is>
       </c>
       <c r="AH4" t="inlineStr"/>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t> </t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t> </t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>No</t>
+          <t> </t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
@@ -1401,62 +1501,62 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>No</t>
+          <t> </t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>No</t>
+          <t> </t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t> </t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>No</t>
+          <t> </t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>No</t>
+          <t> </t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
         <is>
-          <t>No</t>
+          <t> </t>
         </is>
       </c>
       <c r="AT4" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t> </t>
         </is>
       </c>
       <c r="AU4" t="inlineStr">
         <is>
-          <t>No</t>
+          <t> </t>
         </is>
       </c>
       <c r="AV4" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t> </t>
         </is>
       </c>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>No</t>
+          <t> </t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>No</t>
+          <t> </t>
         </is>
       </c>
       <c r="AY4" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t> </t>
         </is>
       </c>
       <c r="AZ4" t="inlineStr">
@@ -1468,7 +1568,7 @@
       <c r="BB4" t="inlineStr"/>
       <c r="BC4" t="inlineStr">
         <is>
-          <t>No</t>
+          <t> </t>
         </is>
       </c>
       <c r="BD4" t="inlineStr">
@@ -1477,25 +1577,41 @@
         </is>
       </c>
       <c r="BE4" t="inlineStr"/>
-      <c r="BF4" t="inlineStr"/>
-      <c r="BG4" t="inlineStr"/>
+      <c r="BF4" t="inlineStr">
+        <is>
+          <t>proporcionando Loción Emoliente Calificación</t>
+        </is>
+      </c>
+      <c r="BG4" t="inlineStr">
+        <is>
+          <t>utilizar</t>
+        </is>
+      </c>
       <c r="BH4" t="inlineStr"/>
       <c r="BI4" t="inlineStr"/>
       <c r="BJ4" t="inlineStr"/>
       <c r="BK4" t="inlineStr"/>
       <c r="BL4" t="inlineStr"/>
-      <c r="BM4" t="inlineStr"/>
+      <c r="BM4" t="inlineStr">
+        <is>
+          <t>Calificación</t>
+        </is>
+      </c>
       <c r="BN4" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="BO4" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="BP4" t="inlineStr"/>
+          <t> </t>
+        </is>
+      </c>
+      <c r="BP4" t="inlineStr">
+        <is>
+          <t>Calificación</t>
+        </is>
+      </c>
       <c r="BQ4" t="inlineStr"/>
       <c r="BR4" t="inlineStr">
         <is>
@@ -1505,7 +1621,563 @@
       <c r="BS4" t="inlineStr"/>
       <c r="BT4" t="inlineStr">
         <is>
-          <t>No</t>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>1001634</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Gel Benzac Ac 5 Porciento Limpiador Contra El Acné X60g</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>$58.475</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>glicerina</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>glicerina</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>aplicación Calificación</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Dermocosmética</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>productos granos productos hidrato productos productos</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>producto producto producto producto producto producto</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>resequedad resequedad</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr"/>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="AJ5" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AL5" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="AM5" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AN5" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="AP5" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AQ5" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="AR5" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="AS5" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="AT5" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AU5" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="AV5" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AW5" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="AX5" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="AY5" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AZ5" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="BA5" t="inlineStr"/>
+      <c r="BB5" t="inlineStr"/>
+      <c r="BC5" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="BD5" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="BE5" t="inlineStr"/>
+      <c r="BF5" t="inlineStr">
+        <is>
+          <t>aplicación Calificación Calificación calificación experiencia obligatoriamente disponibilidad Calificación</t>
+        </is>
+      </c>
+      <c r="BG5" t="inlineStr"/>
+      <c r="BH5" t="inlineStr"/>
+      <c r="BI5" t="inlineStr"/>
+      <c r="BJ5" t="inlineStr">
+        <is>
+          <t>tratamiento</t>
+        </is>
+      </c>
+      <c r="BK5" t="inlineStr"/>
+      <c r="BL5" t="inlineStr"/>
+      <c r="BM5" t="inlineStr">
+        <is>
+          <t>administración Información aplicación Calificación acción acción acción acción acción verificación Calificación Configuración calificación complementar disponibilidad Calificación</t>
+        </is>
+      </c>
+      <c r="BN5" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="BO5" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="BP5" t="inlineStr">
+        <is>
+          <t>Características administración Información aplicación Calificación verificación Calificación calificación valoraciones consultas Respuestas disponibilidad Calificación</t>
+        </is>
+      </c>
+      <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="BS5" t="inlineStr"/>
+      <c r="BT5" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>1031657</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Oferta Pestañina Max Factor Lash Maker + Mini Lash Maker Pr.Esp.X2und</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>$38.950</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>piel aplíquela</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>piel</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>duración Calificación</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>agua agua</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>producto producto producto producto producto producto</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="AD6" t="inlineStr"/>
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr"/>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="AL6" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="AM6" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AN6" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="AP6" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="AQ6" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="AR6" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="AS6" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="AT6" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="AU6" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="AV6" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="AW6" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="AX6" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="AY6" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="AZ6" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="BA6" t="inlineStr"/>
+      <c r="BB6" t="inlineStr"/>
+      <c r="BC6" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="BD6" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="BE6" t="inlineStr"/>
+      <c r="BF6" t="inlineStr">
+        <is>
+          <t>elevación duración intensidad Calificación Calificación</t>
+        </is>
+      </c>
+      <c r="BG6" t="inlineStr">
+        <is>
+          <t>utilizar</t>
+        </is>
+      </c>
+      <c r="BH6" t="inlineStr"/>
+      <c r="BI6" t="inlineStr"/>
+      <c r="BJ6" t="inlineStr"/>
+      <c r="BK6" t="inlineStr"/>
+      <c r="BL6" t="inlineStr"/>
+      <c r="BM6" t="inlineStr">
+        <is>
+          <t>separación elevación duración Información Calificación acción acción acción acción acción verificación Calificación</t>
+        </is>
+      </c>
+      <c r="BN6" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="BO6" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="BP6" t="inlineStr">
+        <is>
+          <t>Características Información Unidades Unidades Calificación verificación valoraciones Unidades Unidades Unidades Calificación</t>
+        </is>
+      </c>
+      <c r="BQ6" t="inlineStr"/>
+      <c r="BR6" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="BS6" t="inlineStr"/>
+      <c r="BT6" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
